--- a/samples/names_20210620_194826.xlsx
+++ b/samples/names_20210620_194826.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CAAB92-9695-114D-B69D-A53CF27D8ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F9BE8A-4904-A84D-AC1A-50E9522AD1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,12 +64,6 @@
     <t>| Hire | Failed |</t>
   </si>
   <si>
-    <t>Hire</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>noun + and + noun</t>
   </si>
   <si>
@@ -82,12 +76,6 @@
     <t>| Media | Then |</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Then</t>
-  </si>
-  <si>
     <t>OffersVary</t>
   </si>
   <si>
@@ -97,12 +85,6 @@
     <t>| Offers | Vary |</t>
   </si>
   <si>
-    <t>Offers</t>
-  </si>
-  <si>
-    <t>Vary</t>
-  </si>
-  <si>
     <t>FlowingGuide</t>
   </si>
   <si>
@@ -112,12 +94,6 @@
     <t>| Flowing | Guide |</t>
   </si>
   <si>
-    <t>Flowing</t>
-  </si>
-  <si>
-    <t>Guide</t>
-  </si>
-  <si>
     <t>noun + to + noun</t>
   </si>
   <si>
@@ -130,12 +106,6 @@
     <t>| Women | Gaea |</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Gaea</t>
-  </si>
-  <si>
     <t>verb + noun</t>
   </si>
   <si>
@@ -148,12 +118,6 @@
     <t>| Build | Lessons |</t>
   </si>
   <si>
-    <t>Build</t>
-  </si>
-  <si>
-    <t>Lessons</t>
-  </si>
-  <si>
     <t>noun + suffix</t>
   </si>
   <si>
@@ -166,12 +130,6 @@
     <t>| Area | onym |</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>onym</t>
-  </si>
-  <si>
     <t>VaryFlame</t>
   </si>
   <si>
@@ -181,9 +139,6 @@
     <t>| Vary | Flame |</t>
   </si>
   <si>
-    <t>Flame</t>
-  </si>
-  <si>
     <t>OutputFamily</t>
   </si>
   <si>
@@ -193,12 +148,6 @@
     <t>| Output | Family |</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
     <t>MindAdobe</t>
   </si>
   <si>
@@ -208,16 +157,67 @@
     <t>| Mind | Adobe |</t>
   </si>
   <si>
-    <t>Mind</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
     <t>w</t>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>['Hire','verb']</t>
+  </si>
+  <si>
+    <t>['Failed','verb']</t>
+  </si>
+  <si>
+    <t>['Offers','verb']</t>
+  </si>
+  <si>
+    <t>['Vary','verb']</t>
+  </si>
+  <si>
+    <t>['Flowing','verb']</t>
+  </si>
+  <si>
+    <t>['Guide','verb']</t>
+  </si>
+  <si>
+    <t>['Build','verb']</t>
+  </si>
+  <si>
+    <t>['Flame','verb']</t>
+  </si>
+  <si>
+    <t>['Output','verb']</t>
+  </si>
+  <si>
+    <t>['Mind','verb']</t>
+  </si>
+  <si>
+    <t>['Media','noun']</t>
+  </si>
+  <si>
+    <t>['Then','noun']</t>
+  </si>
+  <si>
+    <t>['Women','noun']</t>
+  </si>
+  <si>
+    <t>['Gaea','noun']</t>
+  </si>
+  <si>
+    <t>['Lessons','noun']</t>
+  </si>
+  <si>
+    <t>['Area','noun']</t>
+  </si>
+  <si>
+    <t>['Family','noun']</t>
+  </si>
+  <si>
+    <t>['Adobe','noun']</t>
+  </si>
+  <si>
+    <t>['onym','suffix']</t>
   </si>
 </sst>
 </file>
@@ -584,10 +584,17 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -638,19 +645,19 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -658,28 +665,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -693,19 +700,19 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -719,28 +726,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -748,25 +755,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -774,25 +781,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -800,28 +807,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,22 +842,22 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -858,28 +865,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -887,28 +894,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
